--- a/PQ_Challenge_196.xlsx
+++ b/PQ_Challenge_196.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628EAC8-197C-4814-A13B-59AEB5450B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63598C9A-D442-4B6C-A5DB-6293BC860456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
   <si>
     <t>Class</t>
   </si>
@@ -621,6 +645,450 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEA0442-C601-4AC8-9451-CA9FF34A90FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510030" y="593090"/>
+          <a:ext cx="749300" cy="542290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>RESULT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Left 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1692F0D7-8007-47CE-B6E7-270F82642760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1421130" y="114300"/>
+          <a:ext cx="844550" cy="497840"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" b="1"/>
+            <a:t>PROBLEM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220762</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50495</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="A person in a suit with his hands on his hips&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403876B4-46B4-4174-A1DF-AFFC3A47320A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971582" y="871220"/>
+          <a:ext cx="4035973" cy="8538210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Thought Bubble: Cloud 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3199B2-74B3-4196-8121-408EAF88A925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1160780" y="1943100"/>
+          <a:ext cx="3263900" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53975"/>
+            <a:gd name="adj2" fmla="val -73389"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="1"/>
+            <a:t>Transpose the problem table into result table. Class will be populated under subjects and marks will be populated under headers Marks-Subject Name.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>732790</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="A close-up of several logos&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04B9FE-B739-4106-8565-41DD0494E57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4767580" y="2901950"/>
+          <a:ext cx="1002030" cy="615101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A9C6B2-814B-49A5-8366-ED7295A1FFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510030" y="593090"/>
+          <a:ext cx="749300" cy="542290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>RESULT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Left 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D8E7AF-AA3B-4B3B-A326-093B764900A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1421130" y="114300"/>
+          <a:ext cx="844550" cy="497840"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" b="1"/>
+            <a:t>PROBLEM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -886,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1148,4 +1616,661 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025FEE32-F787-4259-BC21-6B69088EA6C9}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>60</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14">
+        <v>60</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>90</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14">
+        <v>9</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14">
+        <v>70</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>70</v>
+      </c>
+      <c r="F4" s="13">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
+        <v>60</v>
+      </c>
+      <c r="L4" s="14">
+        <v>50</v>
+      </c>
+      <c r="M4" s="14">
+        <v>20</v>
+      </c>
+      <c r="N4" s="14">
+        <v>80</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>60</v>
+      </c>
+      <c r="F5" s="16">
+        <v>11</v>
+      </c>
+      <c r="G5" s="17">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17">
+        <v>11</v>
+      </c>
+      <c r="K5" s="17">
+        <v>30</v>
+      </c>
+      <c r="L5" s="17">
+        <v>100</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D8B0A4-7FD2-4AF8-B3E1-DA039A1BB7C9}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>60</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14">
+        <v>60</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>90</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14">
+        <v>9</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14">
+        <v>70</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>70</v>
+      </c>
+      <c r="F4" s="13">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
+        <v>60</v>
+      </c>
+      <c r="L4" s="14">
+        <v>50</v>
+      </c>
+      <c r="M4" s="14">
+        <v>20</v>
+      </c>
+      <c r="N4" s="14">
+        <v>80</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>60</v>
+      </c>
+      <c r="F5" s="16">
+        <v>11</v>
+      </c>
+      <c r="G5" s="17">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17">
+        <v>11</v>
+      </c>
+      <c r="K5" s="17">
+        <v>30</v>
+      </c>
+      <c r="L5" s="17">
+        <v>100</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="str" cm="1">
+        <f t="array" ref="B17:K20">_xlfn.LET(_xlpm.a,A2:A11,_xlpm.b,B2:B11,_xlpm.e,_xlfn.LAMBDA(_xlpm.x,_xlfn.XLOOKUP(_xlfn.UNIQUE(_xlpm.a)&amp;_xlfn.TOROW(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlpm.b))),_xlpm.a&amp;_xlpm.b,_xlpm.x,"")),_xlfn.HSTACK(_xlpm.e(_xlpm.a),_xlpm.e(C2:C11)))</f>
+        <v/>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>80</v>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PQ_Challenge_196.xlsx
+++ b/PQ_Challenge_196.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63598C9A-D442-4B6C-A5DB-6293BC860456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C034639-C033-4683-9388-F8DE72B28F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -674,7 +674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1510030" y="593090"/>
-          <a:ext cx="749300" cy="542290"/>
+          <a:ext cx="829310" cy="542290"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -721,8 +721,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -740,7 +740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1421130" y="114300"/>
-          <a:ext cx="844550" cy="497840"/>
+          <a:ext cx="910590" cy="497840"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -777,176 +777,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220762</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>50495</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="A person in a suit with his hands on his hips&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403876B4-46B4-4174-A1DF-AFFC3A47320A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971582" y="871220"/>
-          <a:ext cx="4035973" cy="8538210"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Thought Bubble: Cloud 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3199B2-74B3-4196-8121-408EAF88A925}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1160780" y="1943100"/>
-          <a:ext cx="3263900" cy="1809750"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloudCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 53975"/>
-            <a:gd name="adj2" fmla="val -73389"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="1"/>
-            <a:t>Transpose the problem table into result table. Class will be populated under subjects and marks will be populated under headers Marks-Subject Name.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>732790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>42331</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="A close-up of several logos&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04B9FE-B739-4106-8565-41DD0494E57A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4767580" y="2901950"/>
-          <a:ext cx="1002030" cy="615101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1350,6 +1180,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{88A10825-608A-4AD5-B0FF-8293CB0E0022}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
@@ -1620,10 +1477,568 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025FEE32-F787-4259-BC21-6B69088EA6C9}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>60</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14">
+        <v>8</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14">
+        <v>8</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14">
+        <v>60</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>90</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14">
+        <v>9</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14">
+        <v>70</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>70</v>
+      </c>
+      <c r="G4" s="13">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14">
+        <v>10</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14">
+        <v>60</v>
+      </c>
+      <c r="M4" s="14">
+        <v>50</v>
+      </c>
+      <c r="N4" s="14">
+        <v>20</v>
+      </c>
+      <c r="O4" s="14">
+        <v>80</v>
+      </c>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>60</v>
+      </c>
+      <c r="G5" s="16">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17">
+        <v>11</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17">
+        <v>11</v>
+      </c>
+      <c r="L5" s="17">
+        <v>30</v>
+      </c>
+      <c r="M5" s="17">
+        <v>100</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:F17">_xlfn.XLOOKUP(_xlfn.UNIQUE(A2:A11&amp;_xlfn._xlws.SORT(_xlfn.TOROW(_xlfn.UNIQUE(B2:B11)))),A2:A11&amp;B2:B11,C2:C11)</f>
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="str" cm="1">
+        <f t="array" ref="G18:P18">G1:P1</f>
+        <v>Biology</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <v>Chemistry</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <v>Ecology</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <v>Philosophy</v>
+      </c>
+      <c r="K18" s="5" t="str">
+        <v>Physics</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <v>Marks-Biology</v>
+      </c>
+      <c r="M18" s="5" t="str">
+        <v>Marks-Chemistry</v>
+      </c>
+      <c r="N18" s="5" t="str">
+        <v>Marks-Ecology</v>
+      </c>
+      <c r="O18" s="5" t="str">
+        <v>Marks-Philosophy</v>
+      </c>
+      <c r="P18" s="6" t="str">
+        <v>Marks-Physics</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19:F22">_xlfn.UNIQUE(A2:A11)&amp;_xlfn.TOROW(_xlfn._xlws.SORT(_xlfn.UNIQUE(B2:B11)))</f>
+        <v>8Biology</v>
+      </c>
+      <c r="C19" t="str">
+        <v>8Chemistry</v>
+      </c>
+      <c r="D19" t="str">
+        <v>8Ecology</v>
+      </c>
+      <c r="E19" t="str">
+        <v>8Philosophy</v>
+      </c>
+      <c r="F19" t="str">
+        <v>8Physics</v>
+      </c>
+      <c r="G19" s="13" t="str" cm="1">
+        <f t="array" ref="G19:K22">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B19),A2:A11&amp;B2:B11,A2:A11,"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="14">
+        <v>8</v>
+      </c>
+      <c r="I19" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J19" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K19" s="14">
+        <v>8</v>
+      </c>
+      <c r="L19" s="14" t="str" cm="1">
+        <f t="array" ref="L19:P22">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B19),A2:A11&amp;B2:B11,C2:C11,"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="14">
+        <v>60</v>
+      </c>
+      <c r="N19" s="14" t="str">
+        <v/>
+      </c>
+      <c r="O19" s="14" t="str">
+        <v/>
+      </c>
+      <c r="P19" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v>9Biology</v>
+      </c>
+      <c r="C20" t="str">
+        <v>9Chemistry</v>
+      </c>
+      <c r="D20" t="str">
+        <v>9Ecology</v>
+      </c>
+      <c r="E20" t="str">
+        <v>9Philosophy</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9Physics</v>
+      </c>
+      <c r="G20" s="13" t="str">
+        <v/>
+      </c>
+      <c r="H20" s="14">
+        <v>9</v>
+      </c>
+      <c r="I20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M20" s="14">
+        <v>70</v>
+      </c>
+      <c r="N20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="O20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="P20" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <v>10Biology</v>
+      </c>
+      <c r="C21" t="str">
+        <v>10Chemistry</v>
+      </c>
+      <c r="D21" t="str">
+        <v>10Ecology</v>
+      </c>
+      <c r="E21" t="str">
+        <v>10Philosophy</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10Physics</v>
+      </c>
+      <c r="G21" s="13">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14">
+        <v>10</v>
+      </c>
+      <c r="I21" s="14">
+        <v>10</v>
+      </c>
+      <c r="J21" s="14">
+        <v>10</v>
+      </c>
+      <c r="K21" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L21" s="14">
+        <v>60</v>
+      </c>
+      <c r="M21" s="14">
+        <v>50</v>
+      </c>
+      <c r="N21" s="14">
+        <v>20</v>
+      </c>
+      <c r="O21" s="14">
+        <v>80</v>
+      </c>
+      <c r="P21" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <v>11Biology</v>
+      </c>
+      <c r="C22" t="str">
+        <v>11Chemistry</v>
+      </c>
+      <c r="D22" t="str">
+        <v>11Ecology</v>
+      </c>
+      <c r="E22" t="str">
+        <v>11Philosophy</v>
+      </c>
+      <c r="F22" t="str">
+        <v>11Physics</v>
+      </c>
+      <c r="G22" s="16">
+        <v>11</v>
+      </c>
+      <c r="H22" s="17">
+        <v>11</v>
+      </c>
+      <c r="I22" s="17" t="str">
+        <v/>
+      </c>
+      <c r="J22" s="17" t="str">
+        <v/>
+      </c>
+      <c r="K22" s="17">
+        <v>11</v>
+      </c>
+      <c r="L22" s="17">
+        <v>30</v>
+      </c>
+      <c r="M22" s="17">
+        <v>100</v>
+      </c>
+      <c r="N22" s="17" t="str">
+        <v/>
+      </c>
+      <c r="O22" s="17" t="str">
+        <v/>
+      </c>
+      <c r="P22" s="18">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D8B0A4-7FD2-4AF8-B3E1-DA039A1BB7C9}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1876,273 +2291,28 @@
         <v>40</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D8B0A4-7FD2-4AF8-B3E1-DA039A1BB7C9}">
-  <dimension ref="A1:O20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9">
-        <v>60</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14">
-        <v>8</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14">
-        <v>8</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14">
-        <v>60</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>90</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14">
-        <v>9</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14">
-        <v>70</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9">
-        <v>70</v>
-      </c>
-      <c r="F4" s="13">
-        <v>10</v>
-      </c>
-      <c r="G4" s="14">
-        <v>10</v>
-      </c>
-      <c r="H4" s="14">
-        <v>10</v>
-      </c>
-      <c r="I4" s="14">
-        <v>10</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
-        <v>60</v>
-      </c>
-      <c r="L4" s="14">
-        <v>50</v>
-      </c>
-      <c r="M4" s="14">
-        <v>20</v>
-      </c>
-      <c r="N4" s="14">
-        <v>80</v>
-      </c>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>60</v>
-      </c>
-      <c r="F5" s="16">
-        <v>11</v>
-      </c>
-      <c r="G5" s="17">
-        <v>11</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17">
-        <v>11</v>
-      </c>
-      <c r="K5" s="17">
-        <v>30</v>
-      </c>
-      <c r="L5" s="17">
-        <v>100</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>11</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12">
-        <v>40</v>
-      </c>
-    </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="str" cm="1">
-        <f t="array" ref="B17:K20">_xlfn.LET(_xlpm.a,A2:A11,_xlpm.b,B2:B11,_xlpm.e,_xlfn.LAMBDA(_xlpm.x,_xlfn.XLOOKUP(_xlfn.UNIQUE(_xlpm.a)&amp;_xlfn.TOROW(_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlpm.b))),_xlpm.a&amp;_xlpm.b,_xlpm.x,"")),_xlfn.HSTACK(_xlpm.e(_xlpm.a),_xlpm.e(C2:C11)))</f>
+        <f t="array" ref="B17:K20">_xlfn.LET(
+    _xlpm.a, A2:A11,
+    _xlpm.b, B2:B11,
+    _xlpm.e, _xlfn.LAMBDA(_xlpm.x,
+        _xlfn.XLOOKUP(
+            _xlfn.UNIQUE(_xlpm.a) &amp;
+                _xlfn.TOROW(
+                    _xlfn._xlws.SORT(
+                        _xlfn.UNIQUE(
+                            _xlpm.b
+                        )
+                    )
+                ),
+            _xlpm.a &amp; _xlpm.b,
+            _xlpm.x,
+            ""
+        )
+    ),
+    _xlfn.HSTACK(_xlpm.e(_xlpm.a), _xlpm.e(C2:C11))
+)</f>
         <v/>
       </c>
       <c r="C17">

--- a/PQ_Challenge_196.xlsx
+++ b/PQ_Challenge_196.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C034639-C033-4683-9388-F8DE72B28F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2C393-186F-4579-A299-AFC5DBB2A010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,6 +1198,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1477,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025FEE32-F787-4259-BC21-6B69088EA6C9}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,12 +1737,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" cm="1">
-        <f t="array" ref="B14:F17">_xlfn.XLOOKUP(_xlfn.UNIQUE(A2:A11&amp;_xlfn._xlws.SORT(_xlfn.TOROW(_xlfn.UNIQUE(B2:B11)))),A2:A11&amp;B2:B11,C2:C11)</f>
+      <c r="B14" t="e" cm="1">
+        <f t="array" ref="B14:F17">_xlfn.XLOOKUP(_xlfn.UNIQUE(A2:A11&amp;_xlfn.TOROW(_xlfn._xlws.SORT(_xlfn.UNIQUE(B2:B11)))),A2:A11&amp;B2:B11,C2:C11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14">
         <v>60</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
       </c>
       <c r="D14" t="e">
         <v>#N/A</v>
@@ -1747,16 +1750,16 @@
       <c r="E14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F14" t="e">
+      <c r="F14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="C15">
         <v>70</v>
-      </c>
-      <c r="C15" t="e">
-        <v>#N/A</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -1770,36 +1773,36 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
         <v>50</v>
       </c>
-      <c r="C16" t="e">
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="D16">
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
         <v>100</v>
       </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
+      <c r="D17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F17" t="e">
-        <v>#N/A</v>
+      <c r="F17">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -2024,6 +2027,333 @@
       </c>
       <c r="P22" s="18">
         <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G24" s="4" t="str" cm="1">
+        <f t="array" ref="G24:P28">_xlfn.LET(
+_xlpm.x, _xlfn.TOROW(_xlfn._xlws.SORT(_xlfn.UNIQUE(B2:B11))),
+_xlpm.y, _xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B19),A2:A11&amp;B2:B11,A2:A11,""),
+_xlpm.z, _xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B19),A2:A11&amp;B2:B11,C2:C11,""),
+_xlfn.VSTACK(_xlfn.HSTACK(_xlpm.x,"Marks-"&amp;_xlpm.x),_xlfn.HSTACK(_xlpm.y,_xlpm.z))
+)</f>
+        <v>Biology</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <v>Chemistry</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <v>Ecology</v>
+      </c>
+      <c r="J24" s="5" t="str">
+        <v>Philosophy</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <v>Physics</v>
+      </c>
+      <c r="L24" s="5" t="str">
+        <v>Marks-Biology</v>
+      </c>
+      <c r="M24" s="5" t="str">
+        <v>Marks-Chemistry</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <v>Marks-Ecology</v>
+      </c>
+      <c r="O24" s="5" t="str">
+        <v>Marks-Philosophy</v>
+      </c>
+      <c r="P24" s="6" t="str">
+        <v>Marks-Physics</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G25" s="13" t="str">
+        <v/>
+      </c>
+      <c r="H25" s="14">
+        <v>8</v>
+      </c>
+      <c r="I25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K25" s="14">
+        <v>8</v>
+      </c>
+      <c r="L25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M25" s="14">
+        <v>60</v>
+      </c>
+      <c r="N25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="O25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="P25" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G26" s="13" t="str">
+        <v/>
+      </c>
+      <c r="H26" s="14">
+        <v>9</v>
+      </c>
+      <c r="I26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="M26" s="14">
+        <v>70</v>
+      </c>
+      <c r="N26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="O26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="P26" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G27" s="13">
+        <v>10</v>
+      </c>
+      <c r="H27" s="14">
+        <v>10</v>
+      </c>
+      <c r="I27" s="14">
+        <v>10</v>
+      </c>
+      <c r="J27" s="14">
+        <v>10</v>
+      </c>
+      <c r="K27" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L27" s="14">
+        <v>60</v>
+      </c>
+      <c r="M27" s="14">
+        <v>50</v>
+      </c>
+      <c r="N27" s="14">
+        <v>20</v>
+      </c>
+      <c r="O27" s="14">
+        <v>80</v>
+      </c>
+      <c r="P27" s="15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G28" s="16">
+        <v>11</v>
+      </c>
+      <c r="H28" s="17">
+        <v>11</v>
+      </c>
+      <c r="I28" s="17" t="str">
+        <v/>
+      </c>
+      <c r="J28" s="17" t="str">
+        <v/>
+      </c>
+      <c r="K28" s="17">
+        <v>11</v>
+      </c>
+      <c r="L28" s="17">
+        <v>30</v>
+      </c>
+      <c r="M28" s="17">
+        <v>100</v>
+      </c>
+      <c r="N28" s="17" t="str">
+        <v/>
+      </c>
+      <c r="O28" s="17" t="str">
+        <v/>
+      </c>
+      <c r="P28" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G30" t="b" cm="1">
+        <f t="array" ref="G30:P34">G1:P5=_xlfn.ANCHORARRAY(G24)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
